--- a/EXCEL/stock.xlsx
+++ b/EXCEL/stock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,32 +476,1188 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>продукт 2</t>
+          <t>крем для лица Увлажняющий</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>туба белая</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>крем для лица Увлажняющий</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2" t="n">
+        <v>22.2867</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>913.7547000000002</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>крем от пигментных пятен</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>туба белая</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>крем от пигментных пятен</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>187</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.062</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3751.594</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>молочко для умывания</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>флакон белый под умывалки</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>молочко для умывания</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>132</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.611125</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3644.6685</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>гель для умывания</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>флакон белый под умывалки</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>гель для умывания</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>265</v>
+      </c>
+      <c r="F5" t="n">
+        <v>32.61196</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8642.169400000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>мусс для умывания</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>флакон под мусс для умывания</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>мусс для умывания</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>48.530375</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>339.712625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>гидрофильное масло</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>флакон белый под умывалки</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>гидрофильное масло</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>83</v>
+      </c>
+      <c r="F7" t="n">
+        <v>70.1088</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5819.030400000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>масло для ресниц</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>тубус для ресниц</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>масло для ресниц</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.3451325</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>бальзам для губ Клубничный</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>тубус для губ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>бальзам для губ Клубничный</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>349</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.3535</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8150.3715</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>бальзам для губ Облепиха</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>тубус для губ</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>бальзам для губ Облепиха</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>206</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.319</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4803.714</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>бальзам для губ Апельсиновый</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>тубус для губ</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>бальзам для губ Апельсиновый</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>203</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23.3442</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4738.872600000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>бальзам для губ Медовый</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>тубус для губ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>бальзам для губ Медовый</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>111</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23.334</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2590.074</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>бальзам для губ Шоколадный</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>тубус для губ</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>бальзам для губ Шоколадный</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>157</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3659.670000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>сыворотка вокруг глаз</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>тубус для сыворотки веки</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>сыворотка вокруг глаз</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>124</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23.262125</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2884.5035</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>бальзам для волос Питание и блеск</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>флакон прозрачный под шампунь</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>бальзам для волос Питание и блеск</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>70.60527500000001</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>494.236925</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>бальзам для окрашенных волос</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>флакон прозрачный под шампунь</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>бальзам для окрашенных волос</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>70.44506250000001</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>845.3407500000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>бальзам интенсивного восстановления</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>флакон прозрачный под шампунь</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>бальзам интенсивного восстановления</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>19</v>
+      </c>
+      <c r="F17" t="n">
+        <v>70.9775625</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1348.5736875</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>шампунь сух</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>флакон прозрачный под шампунь</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>шампунь сух</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" t="n">
+        <v>92.89228750000001</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2786.768625</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>шампунь жир</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>флакон прозрачный под шампунь</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>шампунь жир</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>43</v>
+      </c>
+      <c r="F19" t="n">
+        <v>92.60728750000001</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3982.113362500001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>шампунь норм</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>флакон прозрачный под шампунь</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>шампунь норм</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>57</v>
+      </c>
+      <c r="F20" t="n">
+        <v>92.82478750000001</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5291.012887500001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>сыворотка против выпадения волос</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>диспенсер</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>сыворотка против выпадения волос</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22.515945</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>697.9942950000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Маска пилинг</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>туба белая</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Маска пилинг</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>210</v>
+      </c>
+      <c r="F22" t="n">
+        <v>40.57937500000001</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8521.668750000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>скраб для тела кокосовый с мерцанием</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>дойпак серебристый</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>скраб для тела кокосовый с мерцанием</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>53.248</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>319.4880000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>скраб для тела Кофейный с мерцанием</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>дойпак золотистый</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>скраб для тела Кофейный с мерцанием</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F24" t="n">
+        <v>61.93368000000001</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4954.6944</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>интимгель</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>флакон белый под интимгель</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>интимгель</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>70</v>
+      </c>
+      <c r="F25" t="n">
+        <v>65.09706249999999</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4556.794374999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>крем для упругости груди</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>диспенсер</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>крем для упругости груди</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>51</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15.51006</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>791.01306</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>кератолитик</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>флакон белый под кератолитик</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>кератолитик</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>57</v>
+      </c>
+      <c r="F27" t="n">
+        <v>66.7188</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3802.9716</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Зеленый чай</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>флакон белый под тоник</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>этик 1</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>21.0605</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Зеленый чай</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>44</v>
+      </c>
+      <c r="F28" t="n">
+        <v>31.24612</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>0.1</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>-21060.5</v>
+      <c r="H28" t="n">
+        <v>1374.82928</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Тропический фрукт</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>флакон белый под тоник</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Тропический фрукт</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>63</v>
+      </c>
+      <c r="F29" t="n">
+        <v>31.14612</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1962.20556</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Лайм</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>флакон белый под тоник</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Лайм</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>76</v>
+      </c>
+      <c r="F30" t="n">
+        <v>30.74612</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2336.70512</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Мужской</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>флакон белый под тоник</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Мужской</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>36</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30.64612</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1103.26032</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>сыворотка Супер Лифтинг</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>флакон стекляный</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>сыворотка Супер Лифтинг</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>296</v>
+      </c>
+      <c r="F32" t="n">
+        <v>26.334714</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7795.075344</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>сыворотка витаминная БОМБА</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>флакон стекляный</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>сыворотка витаминная БОМБА</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>264</v>
+      </c>
+      <c r="F33" t="n">
+        <v>25.5543045</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6746.336388</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>сыворотка Анти Акне</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>флакон стекляный</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>сыворотка Анти Акне</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>462</v>
+      </c>
+      <c r="F34" t="n">
+        <v>25.8245865</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>11930.958963</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>маска для волос Укрепляющая</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>туба Укрепляющая маска</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>нет этикетки</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>517</v>
+      </c>
+      <c r="F35" t="n">
+        <v>46.10006249999999</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>23833.7323125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>маска для волос SOS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>туба SOS маска</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>нет этикетки</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>25</v>
+      </c>
+      <c r="F36" t="n">
+        <v>55.78555</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1394.63875</v>
       </c>
     </row>
   </sheetData>
